--- a/Data/Params.xlsx
+++ b/Data/Params.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>SheetName</t>
   </si>
@@ -44,17 +44,23 @@
     <t>J90OngQe_WYgvjBeyb-IXn-T</t>
   </si>
   <si>
-    <t>1leBq9SanOCWcyjo65-TECak-4gbplmpg4xlv-okSMR8</t>
-  </si>
-  <si>
     <t>Hoja1</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>https://www.vmedu.com/Partnersv2/</t>
+  </si>
+  <si>
+    <t>13Pol6JLDlFNZYC8MeAtCgE6hhQlfg7ip2S6AJWFcydM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +78,14 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -94,16 +108,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -385,7 +402,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,10 +435,20 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -431,7 +458,10 @@
       <c r="C14" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>